--- a/results_FINAL/results_full.xlsx
+++ b/results_FINAL/results_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Efficient-3DCNNs\results_FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40A6D75-C124-4E9D-917E-2A1043A1DB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143342BC-3EA1-4757-B3FC-17FBF7CEC306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2193,6 +2193,1470 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-PH"/>
+              <a:t>3D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-PH" baseline="0"/>
+              <a:t> CNNs Learning Rate Manual Hyperparameter Tuning</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results_full!$E$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Averge Hit@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>results_full!$C$84:$C$89</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>MobileNet (lr=0.1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNet (lr=0.01)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MobileNet (lr=0.001)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ShuffleNet (lr=0.1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ShuffleNet (lr=0.01)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ShuffleNet (lr=0.001)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results_full!$E$84:$E$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2334558823529411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11397058823529406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4926470588235274E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26593137254901961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16850490196078416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9828431372549024E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4292-4793-A39C-66DDA7A3CB9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results_full!$F$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Hit@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>results_full!$C$84:$C$89</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>MobileNet (lr=0.1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNet (lr=0.01)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MobileNet (lr=0.001)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ShuffleNet (lr=0.1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ShuffleNet (lr=0.01)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ShuffleNet (lr=0.001)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results_full!$F$84:$F$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.76225490196078427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38235294117647051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18566176470588247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7408088235294118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53799019607843146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19240196078431371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4292-4793-A39C-66DDA7A3CB9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1886435711"/>
+        <c:axId val="1886436127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1886435711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886436127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1886436127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886435711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-PH"/>
+              <a:t>3D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-PH" baseline="0"/>
+              <a:t> CNNs Batch Size Manual Hyperparameter Tuning</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results_full!$E$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Averge Hit@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>results_full!$C$92:$C$99</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MobileNet (bs=8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNet (bs=16)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MobileNet (bs=32)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MobileNet (bs=64)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ShuffleNet (bs=8)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ShuffleNet (bs=16)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ShuffleNet (bs=32)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ShuffleNet (bs=64)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results_full!$E$92:$E$99</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.14215686274509806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1356209150326797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12254901960784305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10947712418300647</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1977124183006535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17810457516339853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13643790849673212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12009803921568622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3F8-490F-9E7B-37793ECFF361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results_full!$F$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Hit@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>results_full!$C$92:$C$99</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MobileNet (bs=8)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNet (bs=16)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MobileNet (bs=32)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MobileNet (bs=64)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ShuffleNet (bs=8)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ShuffleNet (bs=16)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ShuffleNet (bs=32)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ShuffleNet (bs=64)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results_full!$F$92:$F$99</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.52042483660130712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4934640522875815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39705882352941174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3627450980392159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56699346405228779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53676470588235292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47303921568627466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38480392156862742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3F8-490F-9E7B-37793ECFF361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1886435711"/>
+        <c:axId val="1886436127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1886435711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886436127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1886436127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886435711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-PH"/>
+              <a:t>3D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-PH" baseline="0"/>
+              <a:t> CNNs Epoch Manual Hyperparameter Tuning</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results_full!$E$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Averge Hit@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>results_full!$C$102:$C$107</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>MobileNet (epoch=100)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNet (epoch=250)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MobileNet (epoch=500)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ShuffleNet (epoch=100)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ShuffleNet (epoch=250)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ShuffleNet (epoch=500)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results_full!$E$102:$E$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.12990196078431368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12806372549019604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12438725490196074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15563725490196076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1574754901960784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16115196078431362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4423-4363-9E55-963640EC80CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results_full!$F$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Hit@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>results_full!$C$102:$C$107</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>MobileNet (epoch=100)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNet (epoch=250)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MobileNet (epoch=500)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ShuffleNet (epoch=100)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ShuffleNet (epoch=250)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ShuffleNet (epoch=500)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results_full!$F$102:$F$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.44791666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44117647058823545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49203431372549017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50122549019607843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47794117647058815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4423-4363-9E55-963640EC80CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1886435711"/>
+        <c:axId val="1886436127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1886435711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886436127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1886436127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886435711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2353,6 +3817,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -3869,6 +5453,1521 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4523,6 +7622,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>227482</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>22415</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C837983C-216C-4698-97AE-32E66FBBDBBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>5603</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>4485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>233085</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>26899</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A168B7-F475-4F53-94F0-D6C94120B171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>128869</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>4484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>356351</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>26898</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1FE440-D31F-4B8A-9D10-E5F06264720C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4638,8 +7851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E101" activeCellId="1" sqref="C101:C107 E101:F107"/>
+    <sheetView tabSelected="1" topLeftCell="AI100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BB75" sqref="BB75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
